--- a/names.xlsx
+++ b/names.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>Shivani Kuvad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">રવિ વાણિયા </t>
+  </si>
+  <si>
+    <t xml:space="preserve">જ્યોત્સનાબેન વાણિયા </t>
+  </si>
+  <si>
+    <t xml:space="preserve">એલ જે વાણિયા </t>
   </si>
 </sst>
 </file>
@@ -303,6 +312,30 @@
         <v>9.409435179E9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8.511119526E9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.863826037E9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.511119525E9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
